--- a/Numbers.xlsx
+++ b/Numbers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshuaIsaacsMarageli\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshuaIsaacsMarageli\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42128904-7EFD-4267-89A1-3CB1EB9E3307}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BF335F-F4CC-4899-B376-8748A4BF090D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="2" xr2:uid="{56072D39-6C26-4512-8453-A0EC6E37623A}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Add these Numbers</t>
   </si>
@@ -123,14 +123,44 @@
   </si>
   <si>
     <t>Cost</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>R5.95</t>
+  </si>
+  <si>
+    <t>R7.83</t>
+  </si>
+  <si>
+    <t>R8.00</t>
+  </si>
+  <si>
+    <t>R4.40</t>
+  </si>
+  <si>
+    <t>Weekly cost of chocolate addiction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="&quot;R&quot;#,##0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;R&quot;* #,##0.00_-;\-&quot;R&quot;* #,##0.00_-;_-&quot;R&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;R&quot;#,##0"/>
+    <numFmt numFmtId="170" formatCode="[$£-809]#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;R&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -189,11 +219,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -205,20 +236,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -588,75 +630,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3">
         <v>12</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -670,25 +712,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59AAB9A-6640-4A44-8C36-2C2819A54E5F}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -721,25 +764,25 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="9">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="9">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="9">
         <v>3</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="9">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="9">
         <v>5</v>
       </c>
       <c r="J4">
@@ -751,25 +794,25 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="9">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="9">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="9">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="9">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="9">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="9">
         <v>4</v>
       </c>
       <c r="J5">
@@ -781,25 +824,25 @@
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="9">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="9">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="9">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="9">
         <v>4</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="9">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="9">
         <v>4</v>
       </c>
       <c r="J6">
@@ -811,25 +854,25 @@
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="9">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="9">
         <v>2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="9">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="9">
         <v>2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="9">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="9">
         <v>1</v>
       </c>
       <c r="J7">
@@ -841,48 +884,52 @@
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="9">
         <f>SUM(B4, B5,B6,B7)</f>
         <v>17</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="9">
         <f>SUM(C4,C5,C6,C7,)</f>
         <v>12</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="9">
         <f>SUM(D4,D5,D6,D7,)</f>
         <v>8</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="9">
         <f>SUM(E4,E5,E6,E7,)</f>
         <v>10</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="9">
         <f>SUM(F4,F5,F6,F7,)</f>
         <v>13</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="9">
         <f>SUM(G4,G5,G6,G7,)</f>
         <v>6</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="9">
         <f>SUM(H4:H7)</f>
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11">
+        <f>SUM(B9:H9)</f>
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="8"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -899,28 +946,75 @@
       <c r="A15" t="s">
         <v>5</v>
       </c>
+      <c r="B15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="11">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="11">
+        <v>27</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="11">
+        <v>25</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
+      <c r="B18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="11">
+        <v>11</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="F20" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>